--- a/data/trans_orig/P16B17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D313CD6B-49D7-4E8B-886C-74A30AADDC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8D87FBC-8144-45F1-936B-02DACB06D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10EA248F-4661-4231-B3AF-89EED8C5E21A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BAF78378-0E4D-444B-92FC-0E304FAAB558}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E461774-833B-40D7-8199-8515D86CE73D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABEA63D-A548-4EE5-95B8-F63782EB0682}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1355,7 +1355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CD0E97-B569-4939-8757-26AC8B0B68D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831D29ED-5606-46C2-BD8F-17644012C8E4}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2173,7 +2173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD0EC3C-AA46-4118-93DA-9A79E7790BB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EE154A-B9FD-42E6-8631-8169BF227AD4}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8D87FBC-8144-45F1-936B-02DACB06D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44BF4586-E86F-444E-BE2D-DF484E349DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BAF78378-0E4D-444B-92FC-0E304FAAB558}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{693DB69A-7472-4C53-A573-B396CF69A0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -124,7 +124,7 @@
     <t>90,51%</t>
   </si>
   <si>
-    <t>Porcentaje de hormonas para la menopausia recetados en 2015 (Tasa respuesta: 0,26%)</t>
+    <t>Porcentaje de hormonas para la menopausia recetados en 2016 (Tasa respuesta: 0,26%)</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABEA63D-A548-4EE5-95B8-F63782EB0682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93E246-9EA9-4C99-ABBB-844A1EA2D75B}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1355,7 +1355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831D29ED-5606-46C2-BD8F-17644012C8E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D66C-05E3-45FF-9760-CF55C4925678}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2173,7 +2173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EE154A-B9FD-42E6-8631-8169BF227AD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EDD8D0-773C-40BB-888E-F3B89EBF2E8D}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44BF4586-E86F-444E-BE2D-DF484E349DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{379E78FF-B68A-459F-91AF-0E855F053A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{693DB69A-7472-4C53-A573-B396CF69A0FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFFF667C-7866-400C-BB54-9D51CD23784D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D93E246-9EA9-4C99-ABBB-844A1EA2D75B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7484ABE1-2833-4659-B9E9-34A30B5C65D2}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1355,7 +1355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90D66C-05E3-45FF-9760-CF55C4925678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175A17A3-7546-4F0F-9A45-6D7A8B4403B9}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2173,7 +2173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EDD8D0-773C-40BB-888E-F3B89EBF2E8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1F2619-EBCC-4C61-92E1-0D3863C34F9E}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
